--- a/resources/Test Files/Rationality AI to Zombies.xlsx
+++ b/resources/Test Files/Rationality AI to Zombies.xlsx
@@ -270,10 +270,10 @@
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>http://www.overcomingbias.com/2015/07/effective-altruism-complaints.html</t>
-  </si>
-  <si>
-    <t>http://www.overcomingbias.com/2015/06/mass-moralizing.html</t>
+    <t>http://lesswrong.com/lw/31/what_do_we_mean_by_rationality/</t>
+  </si>
+  <si>
+    <t>http://lesswrong.com/lw/hp/feeling_rational/</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
